--- a/templates/template_offbs_ifrs.xlsx
+++ b/templates/template_offbs_ifrs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>AGE</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>CHA_LIB</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>DAYS_IN_ARREARS</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -305,6 +311,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +598,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -610,30 +620,32 @@
     <col min="13" max="13" width="20" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="1"/>
-    <col min="17" max="18" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="6.33203125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="1"/>
+    <col min="19" max="20" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K4" s="4">
         <f>SUM(K6:K2000)</f>
         <v>0</v>
@@ -643,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -689,14 +701,20 @@
       <c r="O5" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="P5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M6" s="6" t="str">
-        <f>IFERROR(DATE(RIGHT(Q6,4),MID(Q6,4,2),LEFT(Q6,2)),"")</f>
+        <f>IFERROR(DATE(RIGHT(S6,4),MID(S6,4,2),LEFT(S6,2)),"")</f>
         <v/>
       </c>
       <c r="N6" s="6" t="str">
-        <f>IFERROR(DATE(RIGHT(R6,4),MID(R6,4,2),LEFT(R6,2)),"")</f>
+        <f>IFERROR(DATE(RIGHT(T6,4),MID(T6,4,2),LEFT(T6,2)),"")</f>
         <v/>
       </c>
     </row>
